--- a/resources/Fitness Domain_data.xlsx
+++ b/resources/Fitness Domain_data.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia_CY_Kang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia_CY_Kang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="1200" yWindow="1020" windowWidth="23360" windowHeight="13600"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
-    <sheet name="Gym" sheetId="2" r:id="rId2"/>
+    <sheet name="Spending" sheetId="3" r:id="rId2"/>
+    <sheet name="Gym" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>Metropolitan</t>
   </si>
@@ -163,19 +164,211 @@
   </si>
   <si>
     <t>New York City</t>
+  </si>
+  <si>
+    <t>Los Angeles County</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Number of consumer units (in thousands)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Consumer unit characteristics:</t>
+  </si>
+  <si>
+    <t>Income before taxes</t>
+  </si>
+  <si>
+    <t>Age of reference person</t>
+  </si>
+  <si>
+    <t>Average number in consumer unit:</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Children under 18</t>
+  </si>
+  <si>
+    <t>Adults 65 and older</t>
+  </si>
+  <si>
+    <t>Earners</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Percent homeowner</t>
+  </si>
+  <si>
+    <t>Average annual expenditures</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Food at home</t>
+  </si>
+  <si>
+    <t>Cereals and bakery products</t>
+  </si>
+  <si>
+    <t>Meats, poultry, fish, and eggs</t>
+  </si>
+  <si>
+    <t>Dairy products</t>
+  </si>
+  <si>
+    <t>Fruits and vegetables</t>
+  </si>
+  <si>
+    <t>Other food at home</t>
+  </si>
+  <si>
+    <t>Food away from home</t>
+  </si>
+  <si>
+    <t>Alcoholic beverages</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Shelter</t>
+  </si>
+  <si>
+    <t>Owned dwellings</t>
+  </si>
+  <si>
+    <t>Rented dwellings</t>
+  </si>
+  <si>
+    <t>Other lodging</t>
+  </si>
+  <si>
+    <t>Utilities, fuels, and public services</t>
+  </si>
+  <si>
+    <t>Household operations</t>
+  </si>
+  <si>
+    <t>Housekeeping supplies</t>
+  </si>
+  <si>
+    <t>Household furnishings and equipment</t>
+  </si>
+  <si>
+    <t>Apparel and services</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Vehicle purchases (net outlay)</t>
+  </si>
+  <si>
+    <t>Gasoline and motor oil</t>
+  </si>
+  <si>
+    <t>Other vehicle expenses</t>
+  </si>
+  <si>
+    <t>Public and other transportation</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Personal care products and services</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Tobacco products and smoking supplies</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Cash contributions</t>
+  </si>
+  <si>
+    <t>Personal insurance and pensions</t>
+  </si>
+  <si>
+    <t>Life and other personal insurance</t>
+  </si>
+  <si>
+    <t>Pensions and Social Security</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Dallas-
+Fort Worth</t>
+  </si>
+  <si>
+    <t>Los
+Angeles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="#0.0"/>
+    <numFmt numFmtId="165" formatCode="#0.00"/>
+    <numFmt numFmtId="166" formatCode="#,###"/>
+    <numFmt numFmtId="167" formatCode="\$#,###"/>
+    <numFmt numFmtId="168" formatCode="#.0#"/>
+    <numFmt numFmtId="169" formatCode="\a\/\ #,###;\a\/\ \-#,###"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,10 +379,43 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -198,8 +424,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,229 +749,1961 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>573</v>
+      </c>
+      <c r="J4" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="K4" s="3">
+        <v>22.75</v>
+      </c>
+      <c r="M4" s="2">
+        <v>80365</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>755</v>
+      </c>
+      <c r="J5" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="K5" s="3">
+        <v>28.93</v>
+      </c>
+      <c r="M5" s="2">
+        <v>79738</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>793</v>
+      </c>
+      <c r="J6" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K6" s="3">
+        <v>27.49</v>
+      </c>
+      <c r="M6" s="2">
+        <v>81574</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>969</v>
+      </c>
+      <c r="J7" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>29.04</v>
+      </c>
+      <c r="M7" s="2">
+        <v>105447</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>905</v>
+      </c>
+      <c r="J8" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>27.29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>80597</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2">
+        <v>823</v>
+      </c>
+      <c r="J9" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K9" s="3">
+        <v>28.31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>76721</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>635</v>
+      </c>
+      <c r="J10" s="2">
+        <v>35</v>
+      </c>
+      <c r="K10" s="3">
+        <v>23.95</v>
+      </c>
+      <c r="M10" s="2">
+        <v>73843</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>753</v>
+      </c>
+      <c r="J11" s="2">
+        <v>34</v>
+      </c>
+      <c r="K11" s="3">
+        <v>28.67</v>
+      </c>
+      <c r="M11" s="2">
+        <v>85785</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2">
+        <v>742</v>
+      </c>
+      <c r="J12" s="2">
+        <v>34</v>
+      </c>
+      <c r="K12" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="M12" s="2">
+        <v>87106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="7" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18.90625" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="14.90625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="14.90625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3793</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2729</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1416</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1862</v>
+      </c>
+      <c r="G4" s="11">
+        <v>6321</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2163</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2574</v>
+      </c>
+      <c r="J4" s="11">
+        <v>7619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="12">
+        <v>80365</v>
+      </c>
+      <c r="C8" s="12">
+        <v>79738</v>
+      </c>
+      <c r="D8" s="12">
+        <v>81574</v>
+      </c>
+      <c r="E8" s="12">
+        <v>105447</v>
+      </c>
+      <c r="F8" s="12">
+        <v>80597</v>
+      </c>
+      <c r="G8" s="12">
+        <v>76721</v>
+      </c>
+      <c r="H8" s="12">
+        <v>73843</v>
+      </c>
+      <c r="I8" s="12">
+        <v>85785</v>
+      </c>
+      <c r="J8" s="12">
+        <v>87106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="13">
+        <v>46.7</v>
+      </c>
+      <c r="C10" s="13">
+        <v>49</v>
+      </c>
+      <c r="D10" s="13">
+        <v>46.9</v>
+      </c>
+      <c r="E10" s="13">
+        <v>47.4</v>
+      </c>
+      <c r="F10" s="13">
+        <v>52.4</v>
+      </c>
+      <c r="G10" s="13">
+        <v>49.4</v>
+      </c>
+      <c r="H10" s="13">
+        <v>54.6</v>
+      </c>
+      <c r="I10" s="13">
+        <v>52.2</v>
+      </c>
+      <c r="J10" s="13">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I13" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="J13" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="E17" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
+      <c r="F17" s="13">
+        <v>2</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="14">
+        <v>61</v>
+      </c>
+      <c r="C19" s="14">
+        <v>61</v>
+      </c>
+      <c r="D19" s="14">
+        <v>57</v>
+      </c>
+      <c r="E19" s="14">
+        <v>65</v>
+      </c>
+      <c r="F19" s="14">
+        <v>66</v>
+      </c>
+      <c r="G19" s="14">
+        <v>49</v>
+      </c>
+      <c r="H19" s="14">
+        <v>59</v>
+      </c>
+      <c r="I19" s="14">
+        <v>66</v>
+      </c>
+      <c r="J19" s="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="12">
+        <v>58102</v>
+      </c>
+      <c r="C21" s="12">
+        <v>61545</v>
+      </c>
+      <c r="D21" s="12">
+        <v>62099</v>
+      </c>
+      <c r="E21" s="12">
+        <v>69742</v>
+      </c>
+      <c r="F21" s="12">
+        <v>59651</v>
+      </c>
+      <c r="G21" s="12">
+        <v>64321</v>
+      </c>
+      <c r="H21" s="12">
+        <v>56378</v>
+      </c>
+      <c r="I21" s="12">
+        <v>62563</v>
+      </c>
+      <c r="J21" s="12">
+        <v>63752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="11">
+        <v>5914</v>
+      </c>
+      <c r="C23" s="11">
+        <v>8109</v>
+      </c>
+      <c r="D23" s="11">
+        <v>7380</v>
+      </c>
+      <c r="E23" s="11">
+        <v>7868</v>
+      </c>
+      <c r="F23" s="11">
+        <v>7693</v>
+      </c>
+      <c r="G23" s="11">
+        <v>7984</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6930</v>
+      </c>
+      <c r="I23" s="11">
+        <v>7349</v>
+      </c>
+      <c r="J23" s="11">
+        <v>6796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3421</v>
+      </c>
+      <c r="C24" s="11">
+        <v>4491</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3919</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4262</v>
+      </c>
+      <c r="F24" s="11">
+        <v>4211</v>
+      </c>
+      <c r="G24" s="11">
+        <v>4225</v>
+      </c>
+      <c r="H24" s="11">
+        <v>4120</v>
+      </c>
+      <c r="I24" s="11">
+        <v>4388</v>
+      </c>
+      <c r="J24" s="11">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="14">
+        <v>406</v>
+      </c>
+      <c r="C25" s="14">
+        <v>556</v>
+      </c>
+      <c r="D25" s="14">
+        <v>486</v>
+      </c>
+      <c r="E25" s="14">
+        <v>570</v>
+      </c>
+      <c r="F25" s="14">
+        <v>557</v>
+      </c>
+      <c r="G25" s="14">
+        <v>515</v>
+      </c>
+      <c r="H25" s="14">
+        <v>559</v>
+      </c>
+      <c r="I25" s="14">
+        <v>590</v>
+      </c>
+      <c r="J25" s="14">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="14">
+        <v>910</v>
+      </c>
+      <c r="C26" s="14">
+        <v>947</v>
+      </c>
+      <c r="D26" s="14">
+        <v>827</v>
+      </c>
+      <c r="E26" s="14">
+        <v>824</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1021</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1022</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1059</v>
+      </c>
+      <c r="I26" s="14">
+        <v>959</v>
+      </c>
+      <c r="J26" s="14">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="14">
+        <v>295</v>
+      </c>
+      <c r="C27" s="14">
+        <v>458</v>
+      </c>
+      <c r="D27" s="14">
+        <v>365</v>
+      </c>
+      <c r="E27" s="14">
+        <v>413</v>
+      </c>
+      <c r="F27" s="14">
+        <v>420</v>
+      </c>
+      <c r="G27" s="14">
+        <v>415</v>
+      </c>
+      <c r="H27" s="14">
+        <v>381</v>
+      </c>
+      <c r="I27" s="14">
+        <v>445</v>
+      </c>
+      <c r="J27" s="14">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="14">
+        <v>636</v>
+      </c>
+      <c r="C28" s="14">
+        <v>967</v>
+      </c>
+      <c r="D28" s="14">
+        <v>773</v>
+      </c>
+      <c r="E28" s="14">
+        <v>885</v>
+      </c>
+      <c r="F28" s="14">
+        <v>790</v>
+      </c>
+      <c r="G28" s="14">
+        <v>919</v>
+      </c>
+      <c r="H28" s="14">
+        <v>884</v>
+      </c>
+      <c r="I28" s="14">
+        <v>950</v>
+      </c>
+      <c r="J28" s="14">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1175</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1562</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1468</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1569</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1422</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1353</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1237</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1443</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2493</v>
+      </c>
+      <c r="C30" s="11">
+        <v>3618</v>
+      </c>
+      <c r="D30" s="11">
+        <v>3461</v>
+      </c>
+      <c r="E30" s="11">
+        <v>3606</v>
+      </c>
+      <c r="F30" s="11">
+        <v>3482</v>
+      </c>
+      <c r="G30" s="11">
+        <v>3760</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2810</v>
+      </c>
+      <c r="I30" s="11">
+        <v>2962</v>
+      </c>
+      <c r="J30" s="11">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="14">
+        <v>297</v>
+      </c>
+      <c r="C32" s="14">
+        <v>492</v>
+      </c>
+      <c r="D32" s="14">
+        <v>346</v>
+      </c>
+      <c r="E32" s="14">
+        <v>637</v>
+      </c>
+      <c r="F32" s="14">
+        <v>560</v>
+      </c>
+      <c r="G32" s="14">
+        <v>512</v>
+      </c>
+      <c r="H32" s="14">
+        <v>512</v>
+      </c>
+      <c r="I32" s="14">
+        <v>548</v>
+      </c>
+      <c r="J32" s="14">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="11">
+        <v>19811</v>
+      </c>
+      <c r="C34" s="11">
+        <v>21645</v>
+      </c>
+      <c r="D34" s="11">
+        <v>21221</v>
+      </c>
+      <c r="E34" s="11">
+        <v>22949</v>
+      </c>
+      <c r="F34" s="11">
+        <v>18092</v>
+      </c>
+      <c r="G34" s="11">
+        <v>23265</v>
+      </c>
+      <c r="H34" s="11">
+        <v>20501</v>
+      </c>
+      <c r="I34" s="11">
+        <v>21170</v>
+      </c>
+      <c r="J34" s="11">
+        <v>24743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="11">
+        <v>11466</v>
+      </c>
+      <c r="C35" s="11">
+        <v>13737</v>
+      </c>
+      <c r="D35" s="11">
+        <v>12099</v>
+      </c>
+      <c r="E35" s="11">
+        <v>14638</v>
+      </c>
+      <c r="F35" s="11">
+        <v>10019</v>
+      </c>
+      <c r="G35" s="11">
+        <v>15580</v>
+      </c>
+      <c r="H35" s="11">
+        <v>13532</v>
+      </c>
+      <c r="I35" s="11">
+        <v>12397</v>
+      </c>
+      <c r="J35" s="11">
+        <v>16882</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="11">
+        <v>6551</v>
+      </c>
+      <c r="C36" s="11">
+        <v>8522</v>
+      </c>
+      <c r="D36" s="11">
+        <v>6167</v>
+      </c>
+      <c r="E36" s="11">
+        <v>8277</v>
+      </c>
+      <c r="F36" s="11">
+        <v>5750</v>
+      </c>
+      <c r="G36" s="11">
+        <v>7217</v>
+      </c>
+      <c r="H36" s="11">
+        <v>6827</v>
+      </c>
+      <c r="I36" s="11">
+        <v>8061</v>
+      </c>
+      <c r="J36" s="11">
+        <v>8912</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="11">
+        <v>4043</v>
+      </c>
+      <c r="C37" s="11">
+        <v>4359</v>
+      </c>
+      <c r="D37" s="11">
+        <v>5283</v>
+      </c>
+      <c r="E37" s="11">
+        <v>5086</v>
+      </c>
+      <c r="F37" s="11">
+        <v>3334</v>
+      </c>
+      <c r="G37" s="11">
+        <v>7701</v>
+      </c>
+      <c r="H37" s="11">
+        <v>5543</v>
+      </c>
+      <c r="I37" s="11">
+        <v>3363</v>
+      </c>
+      <c r="J37" s="11">
+        <v>7049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="14">
+        <v>873</v>
+      </c>
+      <c r="C38" s="14">
+        <v>856</v>
+      </c>
+      <c r="D38" s="14">
+        <v>649</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1276</v>
+      </c>
+      <c r="F38" s="14">
+        <v>935</v>
+      </c>
+      <c r="G38" s="14">
+        <v>662</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1162</v>
+      </c>
+      <c r="I38" s="14">
+        <v>973</v>
+      </c>
+      <c r="J38" s="14">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="11">
+        <v>4437</v>
+      </c>
+      <c r="C39" s="11">
+        <v>3830</v>
+      </c>
+      <c r="D39" s="11">
+        <v>4438</v>
+      </c>
+      <c r="E39" s="11">
+        <v>3833</v>
+      </c>
+      <c r="F39" s="11">
+        <v>4203</v>
+      </c>
+      <c r="G39" s="11">
+        <v>3672</v>
+      </c>
+      <c r="H39" s="11">
+        <v>3693</v>
+      </c>
+      <c r="I39" s="11">
+        <v>4515</v>
+      </c>
+      <c r="J39" s="11">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1589</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1378</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1588</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1627</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1525</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1643</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1578</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1501</v>
+      </c>
+      <c r="J40" s="11">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="14">
+        <v>486</v>
+      </c>
+      <c r="C41" s="14">
+        <v>713</v>
+      </c>
+      <c r="D41" s="14">
+        <v>693</v>
+      </c>
+      <c r="E41" s="14">
+        <v>610</v>
+      </c>
+      <c r="F41" s="14">
+        <v>713</v>
+      </c>
+      <c r="G41" s="14">
+        <v>599</v>
+      </c>
+      <c r="H41" s="14">
+        <v>642</v>
+      </c>
+      <c r="I41" s="14">
+        <v>769</v>
+      </c>
+      <c r="J41" s="14">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1833</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1986</v>
+      </c>
+      <c r="D42" s="11">
+        <v>2402</v>
+      </c>
+      <c r="E42" s="11">
+        <v>2241</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1632</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1771</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1056</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1988</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1892</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2162</v>
+      </c>
+      <c r="D44" s="11">
+        <v>2087</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1994</v>
+      </c>
+      <c r="F44" s="11">
+        <v>2160</v>
+      </c>
+      <c r="G44" s="11">
+        <v>2858</v>
+      </c>
+      <c r="H44" s="11">
+        <v>3097</v>
+      </c>
+      <c r="I44" s="11">
+        <v>2336</v>
+      </c>
+      <c r="J44" s="11">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="11">
+        <v>10649</v>
+      </c>
+      <c r="C46" s="11">
+        <v>8925</v>
+      </c>
+      <c r="D46" s="11">
+        <v>9906</v>
+      </c>
+      <c r="E46" s="11">
+        <v>11483</v>
+      </c>
+      <c r="F46" s="11">
+        <v>9778</v>
+      </c>
+      <c r="G46" s="11">
+        <v>10038</v>
+      </c>
+      <c r="H46" s="11">
+        <v>8344</v>
+      </c>
+      <c r="I46" s="11">
+        <v>9007</v>
+      </c>
+      <c r="J46" s="11">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="11">
+        <v>5043</v>
+      </c>
+      <c r="C47" s="11">
+        <v>3245</v>
+      </c>
+      <c r="D47" s="11">
+        <v>3955</v>
+      </c>
+      <c r="E47" s="11">
+        <v>5072</v>
+      </c>
+      <c r="F47" s="11">
+        <v>2392</v>
+      </c>
+      <c r="G47" s="11">
+        <v>3388</v>
+      </c>
+      <c r="H47" s="15">
+        <v>2025</v>
+      </c>
+      <c r="I47" s="11">
+        <v>3381</v>
+      </c>
+      <c r="J47" s="11">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2447</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1956</v>
+      </c>
+      <c r="D48" s="11">
+        <v>2286</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1905</v>
+      </c>
+      <c r="F48" s="11">
+        <v>2142</v>
+      </c>
+      <c r="G48" s="11">
+        <v>2607</v>
+      </c>
+      <c r="H48" s="11">
+        <v>2103</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1773</v>
+      </c>
+      <c r="J48" s="11">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="11">
+        <v>2647</v>
+      </c>
+      <c r="C49" s="11">
+        <v>2829</v>
+      </c>
+      <c r="D49" s="11">
+        <v>3096</v>
+      </c>
+      <c r="E49" s="11">
+        <v>3202</v>
+      </c>
+      <c r="F49" s="11">
+        <v>4467</v>
+      </c>
+      <c r="G49" s="11">
+        <v>3370</v>
+      </c>
+      <c r="H49" s="11">
+        <v>3324</v>
+      </c>
+      <c r="I49" s="11">
+        <v>3003</v>
+      </c>
+      <c r="J49" s="11">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="14">
+        <v>511</v>
+      </c>
+      <c r="C50" s="14">
+        <v>893</v>
+      </c>
+      <c r="D50" s="14">
+        <v>570</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1304</v>
+      </c>
+      <c r="F50" s="14">
+        <v>776</v>
+      </c>
+      <c r="G50" s="14">
+        <v>672</v>
+      </c>
+      <c r="H50" s="14">
+        <v>892</v>
+      </c>
+      <c r="I50" s="14">
+        <v>849</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3993</v>
+      </c>
+      <c r="C52" s="11">
+        <v>4758</v>
+      </c>
+      <c r="D52" s="11">
+        <v>4829</v>
+      </c>
+      <c r="E52" s="11">
+        <v>5668</v>
+      </c>
+      <c r="F52" s="11">
+        <v>4801</v>
+      </c>
+      <c r="G52" s="11">
+        <v>3832</v>
+      </c>
+      <c r="H52" s="11">
+        <v>3687</v>
+      </c>
+      <c r="I52" s="11">
+        <v>4877</v>
+      </c>
+      <c r="J52" s="11">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3061</v>
+      </c>
+      <c r="C53" s="11">
+        <v>3468</v>
+      </c>
+      <c r="D53" s="11">
+        <v>3281</v>
+      </c>
+      <c r="E53" s="11">
+        <v>3760</v>
+      </c>
+      <c r="F53" s="11">
+        <v>3517</v>
+      </c>
+      <c r="G53" s="11">
+        <v>2664</v>
+      </c>
+      <c r="H53" s="11">
+        <v>2026</v>
+      </c>
+      <c r="I53" s="11">
+        <v>2688</v>
+      </c>
+      <c r="J53" s="11">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="14">
+        <v>573</v>
+      </c>
+      <c r="C54" s="14">
+        <v>755</v>
+      </c>
+      <c r="D54" s="14">
+        <v>793</v>
+      </c>
+      <c r="E54" s="14">
+        <v>969</v>
+      </c>
+      <c r="F54" s="14">
+        <v>905</v>
+      </c>
+      <c r="G54" s="14">
+        <v>823</v>
+      </c>
+      <c r="H54" s="14">
+        <v>635</v>
+      </c>
+      <c r="I54" s="14">
+        <v>753</v>
+      </c>
+      <c r="J54" s="14">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="14">
+        <v>86</v>
+      </c>
+      <c r="C55" s="14">
+        <v>115</v>
+      </c>
+      <c r="D55" s="14">
+        <v>132</v>
+      </c>
+      <c r="E55" s="14">
+        <v>162</v>
+      </c>
+      <c r="F55" s="14">
+        <v>109</v>
+      </c>
+      <c r="G55" s="14">
+        <v>124</v>
+      </c>
+      <c r="H55" s="14">
+        <v>49</v>
+      </c>
+      <c r="I55" s="14">
+        <v>111</v>
+      </c>
+      <c r="J55" s="14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="11">
+        <v>1284</v>
+      </c>
+      <c r="C56" s="11">
+        <v>1578</v>
+      </c>
+      <c r="D56" s="11">
+        <v>1034</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1034</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1732</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1559</v>
+      </c>
+      <c r="H56" s="14">
+        <v>490</v>
+      </c>
+      <c r="I56" s="11">
+        <v>2260</v>
+      </c>
+      <c r="J56" s="11">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="14">
+        <v>245</v>
+      </c>
+      <c r="C57" s="14">
+        <v>309</v>
+      </c>
+      <c r="D57" s="14">
+        <v>333</v>
+      </c>
+      <c r="E57" s="14">
+        <v>350</v>
+      </c>
+      <c r="F57" s="14">
+        <v>530</v>
+      </c>
+      <c r="G57" s="14">
+        <v>151</v>
+      </c>
+      <c r="H57" s="14">
+        <v>179</v>
+      </c>
+      <c r="I57" s="14">
+        <v>417</v>
+      </c>
+      <c r="J57" s="14">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="14">
+        <v>572</v>
+      </c>
+      <c r="C58" s="14">
+        <v>788</v>
+      </c>
+      <c r="D58" s="14">
+        <v>998</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1316</v>
+      </c>
+      <c r="F58" s="14">
+        <v>955</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1440</v>
+      </c>
+      <c r="H58" s="14">
+        <v>484</v>
+      </c>
+      <c r="I58" s="14">
+        <v>974</v>
+      </c>
+      <c r="J58" s="11">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="11">
+        <v>1702</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1452</v>
+      </c>
+      <c r="D59" s="11">
+        <v>1610</v>
+      </c>
+      <c r="E59" s="11">
+        <v>3530</v>
+      </c>
+      <c r="F59" s="11">
+        <v>1494</v>
+      </c>
+      <c r="G59" s="11">
+        <v>1381</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1191</v>
+      </c>
+      <c r="I59" s="11">
+        <v>1825</v>
+      </c>
+      <c r="J59" s="11">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="11">
+        <v>8022</v>
+      </c>
+      <c r="C61" s="11">
+        <v>6990</v>
+      </c>
+      <c r="D61" s="11">
+        <v>8150</v>
+      </c>
+      <c r="E61" s="11">
+        <v>8022</v>
+      </c>
+      <c r="F61" s="11">
+        <v>7326</v>
+      </c>
+      <c r="G61" s="11">
+        <v>7689</v>
+      </c>
+      <c r="H61" s="11">
+        <v>8253</v>
+      </c>
+      <c r="I61" s="11">
+        <v>8248</v>
+      </c>
+      <c r="J61" s="11">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="14">
+        <v>174</v>
+      </c>
+      <c r="C62" s="14">
+        <v>346</v>
+      </c>
+      <c r="D62" s="14">
+        <v>398</v>
+      </c>
+      <c r="E62" s="14">
+        <v>279</v>
+      </c>
+      <c r="F62" s="14">
+        <v>552</v>
+      </c>
+      <c r="G62" s="14">
+        <v>251</v>
+      </c>
+      <c r="H62" s="14">
+        <v>173</v>
+      </c>
+      <c r="I62" s="14">
+        <v>332</v>
+      </c>
+      <c r="J62" s="14">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="11">
+        <v>7849</v>
+      </c>
+      <c r="C63" s="11">
+        <v>6644</v>
+      </c>
+      <c r="D63" s="11">
+        <v>7752</v>
+      </c>
+      <c r="E63" s="11">
+        <v>7743</v>
+      </c>
+      <c r="F63" s="11">
+        <v>6774</v>
+      </c>
+      <c r="G63" s="11">
+        <v>7438</v>
+      </c>
+      <c r="H63" s="11">
+        <v>8080</v>
+      </c>
+      <c r="I63" s="11">
+        <v>7916</v>
+      </c>
+      <c r="J63" s="11">
+        <v>7494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65"/>
+      <c r="D65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68"/>
+      <c r="C68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B69"/>
+      <c r="D69"/>
+      <c r="H69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
